--- a/Documents/Test cases and Bugs.xlsx
+++ b/Documents/Test cases and Bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documentos\Pessoal\@@\Tech-test\Raidiam-Technical-Task\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED81F09-1C66-4379-AB81-A36DF78F438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3FB6E5-593D-468D-9531-0A19F482481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7B2219DD-7A3A-457F-B547-3A2A1B3C5A43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B2219DD-7A3A-457F-B547-3A2A1B3C5A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -462,6 +462,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -474,10 +477,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -816,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEF497F-672E-4A71-918D-484215D75C3D}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -832,22 +838,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -970,12 +976,12 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1208,141 +1214,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C5018A-C62B-459D-A123-38C482EBBBE3}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="11" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="39.140625" customWidth="1"/>
     <col min="8" max="9" width="34.28515625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1382,6 +1396,9 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>